--- a/biology/Zoologie/Anaglyptus_mysticus/Anaglyptus_mysticus.xlsx
+++ b/biology/Zoologie/Anaglyptus_mysticus/Anaglyptus_mysticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaglyptus mysticus, le clyte théologien, est une espèce d'insectes coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce coléoptère d'une longueur de 0,6 à 1,5 cm est reconnaissable à ses élytres tricolores à dessins variables, blanc cassé et rouge sur fond noir[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce coléoptère d'une longueur de 0,6 à 1,5 cm est reconnaissable à ses élytres tricolores à dessins variables, blanc cassé et rouge sur fond noir,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat et mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaglyptus mysticus se nourrit de végétaux ligneux et herbacés[1].
-Son cycle de vie total est de deux ans[2]. Les adultes, nés d'avril à juillet, préfèrent les fleurs d'arbrisseaux et notamment celles de l'aubépine[3], tandis que leurs larves habitent les arbres à feuillage caduc dont elles minent les branches mortes et les souches[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaglyptus mysticus se nourrit de végétaux ligneux et herbacés.
+Son cycle de vie total est de deux ans. Les adultes, nés d'avril à juillet, préfèrent les fleurs d'arbrisseaux et notamment celles de l'aubépine, tandis que leurs larves habitent les arbres à feuillage caduc dont elles minent les branches mortes et les souches.
 Distribution : Europe, Caucase, Transcaucasie, Turquie et Afrique du Nord.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon INPN      (22 août 2014)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon INPN      (22 août 2014) :
 Clytus (Anaglyptus) mysticus
 Clytus mysticus L.</t>
         </is>
